--- a/data/trans_dic/P12B1_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &lt;16 años</t>
+          <t>Población que requiere cuidados especiales &lt;16 años (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 45,28</t>
+          <t>0,28; 5,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 52,34</t>
+          <t>0,67; 5,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 55,49</t>
+          <t>0,62; 5,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 24,15</t>
+          <t>1,09; 3,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 18,31</t>
+          <t>0,35; 2,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,17; 25,1</t>
+          <t>1,41; 5,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 24,93</t>
+          <t>0,31; 1,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,78; 29,64</t>
+          <t>0,88; 2,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 29,31</t>
+          <t>0,45; 2,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 34,44</t>
+          <t>1,04; 3,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 38,1</t>
+          <t>0,88; 2,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 21,19</t>
+          <t>0,98; 2,66</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 3,4</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 3,5</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 3,2</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 3,0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 2,19</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 3,41</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,48</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 26,44</t>
+          <t>0,3; 2,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 18,08</t>
+          <t>0,17; 1,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,34</t>
+          <t>0,51; 2,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 14,78</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 18,99</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,93</t>
+          <t>0,17; 1,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,63</t>
+          <t>0,28; 1,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 13,15</t>
+          <t>0,14; 1,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 19,34</t>
+          <t>1,36; 4,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 10,74</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 17,68</t>
+          <t>0,0; 2,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 1,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 1,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 1,07</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 3,26</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,8</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 1,98</t>
         </is>
       </c>
     </row>
@@ -941,55 +1110,85 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>12,58%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,37 +1203,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,71</t>
+          <t>0,0; 20,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,88</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 29,55</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 11,83</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,20 +1243,50 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,84</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,44</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,7</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 17,67</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 29,32</t>
+          <t>0,24; 3,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,31; 39,37</t>
+          <t>0,88; 3,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 37,57</t>
+          <t>0,55; 3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 22,54</t>
+          <t>1,32; 6,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,37</t>
+          <t>0,4; 2,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 16,93</t>
+          <t>1,24; 4,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,45</t>
+          <t>0,32; 1,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 23,05</t>
+          <t>0,64; 1,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 16,63</t>
+          <t>0,41; 1,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 23,83</t>
+          <t>1,38; 3,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 22,74</t>
+          <t>0,81; 2,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 18,93</t>
+          <t>0,82; 2,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 1,85</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 2,51</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 1,92</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 4,05</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 1,81</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 2,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &lt;16 años (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24363</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35007</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29983</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33323</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2524</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15288</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29318</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20302</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34065</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3503</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>39651</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>64325</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>50285</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>67388</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6225</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8716</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4606; 93392</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10993; 91985</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10100; 97181</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17636; 58158</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>801; 5950</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2914; 10505</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5692; 30578</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15998; 47466</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8235; 38865</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18331; 65010</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2103; 6590</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2063; 5571</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18505; 117588</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38277; 121291</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>25165; 110543</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>43373; 101240</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3769; 10216</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5918; 14170</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5860</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12429</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8152</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17470</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7491</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11240</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7038</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36471</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13351</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23670</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>53942</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18578</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4135; 28650</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2368; 22039</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6904; 34683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1446</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2212</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2367; 20084</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3851; 25270</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1871; 16944</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18627; 66978</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1913</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1560</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5105; 29337</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11159; 41755</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6871; 29383</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>34200; 88960</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>239; 2488</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>299; 2511</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>33171</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 86715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16314</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 119752</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19007</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 78602</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14152</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0; 141309</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30223</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>64422</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40902</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>80598</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2803</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5832</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22779</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40558</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27339</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>73903</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>53002</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>104980</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>68242</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>154501</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7069</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>9651</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8438; 107780</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30152; 136025</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19010; 106317</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>44631; 223136</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1201; 7125</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3388; 10951</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11361; 43369</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23205; 62626</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14916; 46806</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>48537; 108610</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2452; 7230</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2211; 6261</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>29513; 130506</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>65498; 177343</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>43025; 135024</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>108848; 279333</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4297; 10959</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6549; 15303</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
